--- a/Risk Register/Risk-Register.xlsx
+++ b/Risk Register/Risk-Register.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$8:$K$32</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -141,15 +141,6 @@
     <t>Template from: https://www.leadingagile.com/</t>
   </si>
   <si>
-    <t>cost (over budget)</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>completion (goals not met)</t>
-  </si>
-  <si>
     <t>Member participation</t>
   </si>
   <si>
@@ -165,21 +156,9 @@
     <t>Study/Assignments</t>
   </si>
   <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>usability</t>
-  </si>
-  <si>
-    <t>maintenance</t>
-  </si>
-  <si>
     <t>User security</t>
   </si>
   <si>
-    <t>data sensitivity</t>
-  </si>
-  <si>
     <t>Cross platform complications</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>Resource availability</t>
   </si>
   <si>
-    <t>unmet client expectaions</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
@@ -270,9 +246,6 @@
     <t>If an idea or content is presented to the client and deemed unwanted</t>
   </si>
   <si>
-    <t>If content presented to the client and deemed lacking.</t>
-  </si>
-  <si>
     <t>If more hours are spent on the project than anticipated</t>
   </si>
   <si>
@@ -336,9 +309,6 @@
     <t>If any data is found to be stored or communicated in an inappropriate format.</t>
   </si>
   <si>
-    <t>system security</t>
-  </si>
-  <si>
     <t>If the system itself is found to be vunerable to security breach.</t>
   </si>
   <si>
@@ -462,9 +432,6 @@
     <t>Resolve issue if at all possible. If not possible, reduce risk as much as possible and seek alternative methods.</t>
   </si>
   <si>
-    <t>Have primary platform (IOS) and drop alternative platform and focus team solely on primary platform.</t>
-  </si>
-  <si>
     <t>Attempt to solve and/or find alternative solutions.</t>
   </si>
   <si>
@@ -477,9 +444,6 @@
     <t>Name of person who monitors the risk and initiates response</t>
   </si>
   <si>
-    <t>Micheal Dorrell</t>
-  </si>
-  <si>
     <t>Zihao Liu</t>
   </si>
   <si>
@@ -493,6 +457,42 @@
   </si>
   <si>
     <t>Taige Liu</t>
+  </si>
+  <si>
+    <t>Unmet client expectaions</t>
+  </si>
+  <si>
+    <t>Cost (over time budget)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Completion (goals not met)</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Data sensitivity</t>
+  </si>
+  <si>
+    <t>System security</t>
+  </si>
+  <si>
+    <t>If content is presented to the client but deemed lacking.</t>
+  </si>
+  <si>
+    <t>Michael Dorrell</t>
+  </si>
+  <si>
+    <t>Have primary platform (iOS) and drop alternative platform and focus team solely on primary platform.</t>
   </si>
 </sst>
 </file>
@@ -816,6 +816,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -827,194 +830,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1412,25 +1232,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" customWidth="1"/>
     <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="36.375" customWidth="1"/>
+    <col min="11" max="11" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1440,18 +1260,18 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="B2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.5" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1296,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="32.25" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1495,33 +1315,33 @@
       <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="20" customHeight="1" thickBot="1">
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
       <c r="H5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="12"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="13"/>
@@ -1534,7 +1354,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="27" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
@@ -1569,13 +1389,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="87.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>28</v>
@@ -1602,21 +1422,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="77.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -1625,34 +1445,34 @@
         <v>2</v>
       </c>
       <c r="H10" s="3">
-        <f>F10*G10</f>
+        <f t="shared" ref="H10:H32" si="0">F10*G10</f>
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="86" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1661,67 +1481,67 @@
         <v>3</v>
       </c>
       <c r="H11" s="3">
-        <f>F11*G11</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45">
+      <c r="A12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="20">
         <v>3</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="20">
         <v>2</v>
       </c>
-      <c r="H12" s="27">
-        <f>F12*G12</f>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="27" t="s">
+      <c r="I12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="K12" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>36</v>
@@ -1733,34 +1553,34 @@
         <v>3</v>
       </c>
       <c r="H13" s="3">
-        <f>F13*G13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -1769,34 +1589,34 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <f>F14*G14</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="63">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1805,34 +1625,34 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <f>F15*G15</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="47.25">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1841,34 +1661,34 @@
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <f>F16*G16</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="78.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1877,34 +1697,34 @@
         <v>3</v>
       </c>
       <c r="H17" s="3">
-        <f>F17*G17</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1913,34 +1733,34 @@
         <v>2</v>
       </c>
       <c r="H18" s="3">
-        <f>F18*G18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="47.25">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -1949,34 +1769,34 @@
         <v>2</v>
       </c>
       <c r="H19" s="3">
-        <f>F19*G19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="47.25">
       <c r="A20" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -1985,70 +1805,70 @@
         <v>2</v>
       </c>
       <c r="H20" s="3">
-        <f>F20*G20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="78.75" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20">
+        <v>2</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="27">
-        <v>1</v>
-      </c>
-      <c r="G21" s="27">
-        <v>2</v>
-      </c>
-      <c r="H21" s="27">
-        <f>F21*G21</f>
-        <v>2</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -2057,34 +1877,34 @@
         <v>3</v>
       </c>
       <c r="H22" s="3">
-        <f>F22*G22</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="63.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -2093,34 +1913,34 @@
         <v>1</v>
       </c>
       <c r="H23" s="3">
-        <f>F23*G23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="80.25" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -2129,34 +1949,34 @@
         <v>3</v>
       </c>
       <c r="H24" s="3">
-        <f>F24*G24</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="84" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -2165,34 +1985,34 @@
         <v>3</v>
       </c>
       <c r="H25" s="3">
-        <f>F25*G25</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
@@ -2201,34 +2021,34 @@
         <v>3</v>
       </c>
       <c r="H26" s="3">
-        <f>F26*G26</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="63" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -2237,34 +2057,34 @@
         <v>3</v>
       </c>
       <c r="H27" s="3">
-        <f>F27*G27</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="47.25">
       <c r="A28" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -2273,34 +2093,34 @@
         <v>2</v>
       </c>
       <c r="H28" s="3">
-        <f>F28*G28</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="31.5">
       <c r="A29" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
@@ -2309,34 +2129,34 @@
         <v>2</v>
       </c>
       <c r="H29" s="3">
-        <f>F29*G29</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="31.5">
       <c r="A30" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -2345,34 +2165,34 @@
         <v>2</v>
       </c>
       <c r="H30" s="3">
-        <f>F30*G30</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="31.5">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -2381,34 +2201,34 @@
         <v>3</v>
       </c>
       <c r="H31" s="3">
-        <f>F31*G31</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="47.25">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2417,17 +2237,17 @@
         <v>3</v>
       </c>
       <c r="H32" s="3">
-        <f>F32*G32</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2439,22 +2259,22 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H32 A32:E32 A34:K37 A10:K31">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32 A32:E32 A10:K31">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2483,17 +2303,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
